--- a/Code/Results/Cases/Case_2_148/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_148/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.00737097397506</v>
+        <v>12.99114768829283</v>
       </c>
       <c r="C2">
-        <v>6.264357547098616</v>
+        <v>6.443580603189078</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.950121050077739</v>
+        <v>11.5266319354333</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>29.87797111896289</v>
+        <v>41.17971849164739</v>
       </c>
       <c r="H2">
-        <v>10.94341067035488</v>
+        <v>17.49628690231036</v>
       </c>
       <c r="I2">
-        <v>17.61164426209999</v>
+        <v>27.41399710471474</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.64543400221491</v>
+        <v>10.5933071817574</v>
       </c>
       <c r="L2">
-        <v>6.402812997010832</v>
+        <v>10.24090758299286</v>
       </c>
       <c r="M2">
-        <v>9.918711562696378</v>
+        <v>14.61703621086329</v>
       </c>
       <c r="N2">
-        <v>13.84645025192446</v>
+        <v>21.14889742969934</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.23459660298772</v>
+        <v>12.81077756571739</v>
       </c>
       <c r="C3">
-        <v>6.024347764076246</v>
+        <v>6.362136940330569</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.938978796265377</v>
+        <v>11.54635266528762</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>29.71732729695357</v>
+        <v>41.28840621595985</v>
       </c>
       <c r="H3">
-        <v>11.02060974405348</v>
+        <v>17.54965785045948</v>
       </c>
       <c r="I3">
-        <v>17.75487897705219</v>
+        <v>27.50768331018679</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.964793529685911</v>
+        <v>10.46868518184184</v>
       </c>
       <c r="L3">
-        <v>6.323862872629124</v>
+        <v>10.24947439209668</v>
       </c>
       <c r="M3">
-        <v>9.626141165429045</v>
+        <v>14.59650511187795</v>
       </c>
       <c r="N3">
-        <v>14.06676433910932</v>
+        <v>21.21399276139048</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.73934066450779</v>
+        <v>12.70146751636801</v>
       </c>
       <c r="C4">
-        <v>5.872079440658964</v>
+        <v>6.310731392090664</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.934843405592438</v>
+        <v>11.55976487623375</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>29.648662615117</v>
+        <v>41.36570089473734</v>
       </c>
       <c r="H4">
-        <v>11.07442062163333</v>
+        <v>17.58504048248533</v>
       </c>
       <c r="I4">
-        <v>17.85444785981197</v>
+        <v>27.5697913099075</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.523577334118647</v>
+        <v>10.39354870916268</v>
       </c>
       <c r="L4">
-        <v>6.277814011002768</v>
+        <v>10.25613126960129</v>
       </c>
       <c r="M4">
-        <v>9.446295948368743</v>
+        <v>14.58612044560316</v>
       </c>
       <c r="N4">
-        <v>14.20504766500231</v>
+        <v>21.25582921700659</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.53245164858155</v>
+        <v>12.65733921835183</v>
       </c>
       <c r="C5">
-        <v>5.808831120544088</v>
+        <v>6.289440569519396</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.933828544543374</v>
+        <v>11.56555867852502</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>29.62794556605929</v>
+        <v>41.39984580248006</v>
       </c>
       <c r="H5">
-        <v>11.09790476098537</v>
+        <v>17.60011612855523</v>
       </c>
       <c r="I5">
-        <v>17.897834044599</v>
+        <v>27.59625296457683</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.337908351499042</v>
+        <v>10.36331195090448</v>
       </c>
       <c r="L5">
-        <v>6.259666213638913</v>
+        <v>10.25919574146181</v>
       </c>
       <c r="M5">
-        <v>9.373058166585786</v>
+        <v>14.58245091455587</v>
       </c>
       <c r="N5">
-        <v>14.26218079878749</v>
+        <v>21.27334893769841</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.49779704819918</v>
+        <v>12.65003849217224</v>
       </c>
       <c r="C6">
-        <v>5.798257583349539</v>
+        <v>6.285884820465183</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.933700213094101</v>
+        <v>11.5665405704292</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>29.62493606575785</v>
+        <v>41.40567512677261</v>
       </c>
       <c r="H6">
-        <v>11.10189666054509</v>
+        <v>17.60265910444907</v>
       </c>
       <c r="I6">
-        <v>17.90520492039726</v>
+        <v>27.60071647078741</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.30672346622903</v>
+        <v>10.35831522376082</v>
       </c>
       <c r="L6">
-        <v>6.256690267289048</v>
+        <v>10.25972585218963</v>
       </c>
       <c r="M6">
-        <v>9.360903242158921</v>
+        <v>14.58187565475591</v>
       </c>
       <c r="N6">
-        <v>14.27171561993187</v>
+        <v>21.27628656355494</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.73657077578584</v>
+        <v>12.70087062850476</v>
       </c>
       <c r="C7">
-        <v>5.871231250799423</v>
+        <v>6.310445631758061</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.934827018194987</v>
+        <v>11.55984168399003</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>29.64835417340102</v>
+        <v>41.36615068048555</v>
       </c>
       <c r="H7">
-        <v>11.07473110983845</v>
+        <v>17.58524113806697</v>
       </c>
       <c r="I7">
-        <v>17.85502174221531</v>
+        <v>27.57014351688683</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.521097112977996</v>
+        <v>10.39313933408087</v>
       </c>
       <c r="L7">
-        <v>6.277566754621386</v>
+        <v>10.25617117334628</v>
       </c>
       <c r="M7">
-        <v>9.445307893848117</v>
+        <v>14.58606867565207</v>
       </c>
       <c r="N7">
-        <v>14.20581498593979</v>
+        <v>21.25606358509007</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.74531033829541</v>
+        <v>12.92869066870381</v>
       </c>
       <c r="C8">
-        <v>6.182638320543727</v>
+        <v>6.41579452461543</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.945711587299678</v>
+        <v>11.53316133369646</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>29.81620100134944</v>
+        <v>41.21499724311777</v>
       </c>
       <c r="H8">
-        <v>10.96866378551691</v>
+        <v>17.51414692782566</v>
       </c>
       <c r="I8">
-        <v>17.65855057000869</v>
+        <v>27.44534826974522</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.41557639608514</v>
+        <v>10.55007156145073</v>
       </c>
       <c r="L8">
-        <v>6.375091999166991</v>
+        <v>10.24357182488981</v>
       </c>
       <c r="M8">
-        <v>9.817935608726531</v>
+        <v>14.60949832098763</v>
       </c>
       <c r="N8">
-        <v>13.92180519622913</v>
+        <v>21.17095550667028</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.56653489881047</v>
+        <v>13.38443067904657</v>
       </c>
       <c r="C9">
-        <v>6.753221673897533</v>
+        <v>6.61090067609443</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.988966475209915</v>
+        <v>11.49116624568728</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>30.39458140818302</v>
+        <v>41.00273895826813</v>
       </c>
       <c r="H9">
-        <v>10.81419483493599</v>
+        <v>17.39546328890172</v>
       </c>
       <c r="I9">
-        <v>17.37078584765248</v>
+        <v>27.23702697254018</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.9856201103218</v>
+        <v>10.86724008947148</v>
       </c>
       <c r="L9">
-        <v>6.585230074564817</v>
+        <v>10.22992408943339</v>
       </c>
       <c r="M9">
-        <v>10.54285391762687</v>
+        <v>14.67289575655889</v>
       </c>
       <c r="N9">
-        <v>13.38755611307974</v>
+        <v>21.01881341249116</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.90869520281958</v>
+        <v>13.72150613525355</v>
       </c>
       <c r="C10">
-        <v>7.146844565026164</v>
+        <v>6.746754702935307</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.034688789196283</v>
+        <v>11.46658158607352</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>30.98590661981581</v>
+        <v>40.89855623131024</v>
       </c>
       <c r="H10">
-        <v>10.73723328679787</v>
+        <v>17.32090737934566</v>
       </c>
       <c r="I10">
-        <v>17.22655802450674</v>
+        <v>27.10620237731714</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.02854405655262</v>
+        <v>11.10392790315084</v>
       </c>
       <c r="L10">
-        <v>6.750604897915487</v>
+        <v>10.22660496804245</v>
       </c>
       <c r="M10">
-        <v>11.06686543910216</v>
+        <v>14.72986041970407</v>
       </c>
       <c r="N10">
-        <v>13.0071226100953</v>
+        <v>20.91593758114567</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.48807745271084</v>
+        <v>13.87466501518176</v>
       </c>
       <c r="C11">
-        <v>7.320234779037772</v>
+        <v>6.80683402392047</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.058636748064953</v>
+        <v>11.45675302296595</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>31.29378206379432</v>
+        <v>40.86248523978638</v>
       </c>
       <c r="H11">
-        <v>10.71106460325981</v>
+        <v>17.28973545058166</v>
       </c>
       <c r="I11">
-        <v>17.17734815208957</v>
+        <v>27.05152202629767</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.47942676972198</v>
+        <v>11.21195784752339</v>
       </c>
       <c r="L11">
-        <v>6.828103191194214</v>
+        <v>10.22654284714556</v>
       </c>
       <c r="M11">
-        <v>11.30248557678202</v>
+        <v>14.75796992026403</v>
       </c>
       <c r="N11">
-        <v>12.83626314966041</v>
+        <v>20.87105028190102</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.70305062055972</v>
+        <v>13.9325821112037</v>
       </c>
       <c r="C12">
-        <v>7.385074154903712</v>
+        <v>6.829329114633185</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.068167356117821</v>
+        <v>11.45322557335095</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>31.4161565982354</v>
+        <v>40.85045986612125</v>
       </c>
       <c r="H12">
-        <v>10.70250712560065</v>
+        <v>17.27832613285059</v>
       </c>
       <c r="I12">
-        <v>17.16123182573599</v>
+        <v>27.0315116815575</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.64681878331946</v>
+        <v>11.2528812942433</v>
       </c>
       <c r="L12">
-        <v>6.857765608295149</v>
+        <v>10.22672662680449</v>
       </c>
       <c r="M12">
-        <v>11.39124894068906</v>
+        <v>14.76892435685579</v>
       </c>
       <c r="N12">
-        <v>12.77184358081236</v>
+        <v>20.85432604346981</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.65694823565588</v>
+        <v>13.92011308496632</v>
       </c>
       <c r="C13">
-        <v>7.371146306143114</v>
+        <v>6.824495889715195</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.06609407424768</v>
+        <v>11.45397663351029</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>31.38954061403069</v>
+        <v>40.85297699248282</v>
       </c>
       <c r="H13">
-        <v>10.7042886713361</v>
+        <v>17.28076577019801</v>
       </c>
       <c r="I13">
-        <v>17.16458812709544</v>
+        <v>27.0357902999083</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.61091614000709</v>
+        <v>11.24406761631709</v>
       </c>
       <c r="L13">
-        <v>6.851363410240055</v>
+        <v>10.22667784159154</v>
       </c>
       <c r="M13">
-        <v>11.37215359387862</v>
+        <v>14.76655143224431</v>
       </c>
       <c r="N13">
-        <v>12.78570556926518</v>
+        <v>20.85791575852768</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.50585180147149</v>
+        <v>13.87943182003246</v>
       </c>
       <c r="C14">
-        <v>7.325585588315424</v>
+        <v>6.808689877307185</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.05941152457709</v>
+        <v>11.45645892386731</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>31.30373279797296</v>
+        <v>40.8614631283968</v>
       </c>
       <c r="H14">
-        <v>10.7103330010375</v>
+        <v>17.28878888507588</v>
       </c>
       <c r="I14">
-        <v>17.1759708353723</v>
+        <v>27.04986181010689</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.49326506422696</v>
+        <v>11.21532455499365</v>
       </c>
       <c r="L14">
-        <v>6.83053727295711</v>
+        <v>10.2265538174769</v>
       </c>
       <c r="M14">
-        <v>11.30979776726249</v>
+        <v>14.75886497026051</v>
       </c>
       <c r="N14">
-        <v>12.83095788817628</v>
+        <v>20.86966889237972</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.41272615758268</v>
+        <v>13.85450123215733</v>
       </c>
       <c r="C15">
-        <v>7.297571540867185</v>
+        <v>6.798974710982732</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.055378712651302</v>
+        <v>11.4580047031168</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>31.25193250287183</v>
+        <v>40.86687407551665</v>
       </c>
       <c r="H15">
-        <v>10.71421386614375</v>
+        <v>17.2937546983699</v>
       </c>
       <c r="I15">
-        <v>17.18327592507131</v>
+        <v>27.05857167578688</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.42076565836834</v>
+        <v>11.19771945255054</v>
       </c>
       <c r="L15">
-        <v>6.817821438419432</v>
+        <v>10.22650481860262</v>
       </c>
       <c r="M15">
-        <v>11.27154123765336</v>
+        <v>14.75419698121292</v>
       </c>
       <c r="N15">
-        <v>12.85871177141584</v>
+        <v>20.87690362098712</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.87020867708228</v>
+        <v>13.71148849701764</v>
       </c>
       <c r="C16">
-        <v>7.135398510923227</v>
+        <v>6.742793038290943</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.033187888634354</v>
+        <v>11.46725113618075</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>30.96658588422303</v>
+        <v>40.90114190270447</v>
       </c>
       <c r="H16">
-        <v>10.73912818477021</v>
+        <v>17.32299977369257</v>
       </c>
       <c r="I16">
-        <v>17.23011752233906</v>
+        <v>27.1098731946952</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.99860717917745</v>
+        <v>11.09687196127123</v>
       </c>
       <c r="L16">
-        <v>6.745584926030709</v>
+        <v>10.2266380868029</v>
       </c>
       <c r="M16">
-        <v>11.05140593435873</v>
+        <v>14.72806709788919</v>
       </c>
       <c r="N16">
-        <v>13.01833000630281</v>
+        <v>20.91890942716848</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.52944675681494</v>
+        <v>13.62366934382989</v>
       </c>
       <c r="C17">
-        <v>7.034453478045418</v>
+        <v>6.707880637392351</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.020387631787544</v>
+        <v>11.47327028761736</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>30.80163896665448</v>
+        <v>40.92506839147008</v>
       </c>
       <c r="H17">
-        <v>10.75673290970865</v>
+        <v>17.34164363773855</v>
       </c>
       <c r="I17">
-        <v>17.26316520118603</v>
+        <v>27.14258343842961</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.73362162159908</v>
+        <v>11.03507094455544</v>
       </c>
       <c r="L17">
-        <v>6.701843452806632</v>
+        <v>10.22709004621484</v>
       </c>
       <c r="M17">
-        <v>10.91560552325091</v>
+        <v>14.71259567881334</v>
       </c>
       <c r="N17">
-        <v>13.11679004060728</v>
+        <v>20.94516729658696</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.33051179563832</v>
+        <v>13.57314450280922</v>
       </c>
       <c r="C18">
-        <v>6.975858721023529</v>
+        <v>6.687638389197205</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.013321088145215</v>
+        <v>11.47685992295535</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>30.71041455530911</v>
+        <v>40.93989568276296</v>
       </c>
       <c r="H18">
-        <v>10.76768581061621</v>
+        <v>17.35262535219981</v>
       </c>
       <c r="I18">
-        <v>17.28370694425808</v>
+        <v>27.16185229369691</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.57898986014416</v>
+        <v>10.99956063783473</v>
       </c>
       <c r="L18">
-        <v>6.676898662458752</v>
+        <v>10.22748632953773</v>
       </c>
       <c r="M18">
-        <v>10.83724067809474</v>
+        <v>14.70390399217931</v>
       </c>
       <c r="N18">
-        <v>13.1736311271284</v>
+        <v>20.96045011586958</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.2626496102009</v>
+        <v>13.55603703407694</v>
       </c>
       <c r="C19">
-        <v>6.955928070542217</v>
+        <v>6.680757216844501</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.010979000912379</v>
+        <v>11.47809723698708</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>30.68014789480655</v>
+        <v>40.94509874358066</v>
       </c>
       <c r="H19">
-        <v>10.77153394498463</v>
+        <v>17.35638792057621</v>
       </c>
       <c r="I19">
-        <v>17.29092067173821</v>
+        <v>27.16845447624332</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.52625195574103</v>
+        <v>10.98754477502314</v>
       </c>
       <c r="L19">
-        <v>6.668489896900589</v>
+        <v>10.22764394438663</v>
       </c>
       <c r="M19">
-        <v>10.81066582869944</v>
+        <v>14.70099687155673</v>
       </c>
       <c r="N19">
-        <v>13.19291356244209</v>
+        <v>20.96565556728342</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.56602508842036</v>
+        <v>13.63301965373471</v>
       </c>
       <c r="C20">
-        <v>7.045254547425482</v>
+        <v>6.711613902668604</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.021719556497604</v>
+        <v>11.4726163379748</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>30.81881873434866</v>
+        <v>40.92241106553602</v>
       </c>
       <c r="H20">
-        <v>10.75477268100219</v>
+        <v>17.33963223619497</v>
       </c>
       <c r="I20">
-        <v>17.25948736372456</v>
+        <v>27.1390543008542</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.76205918390109</v>
+        <v>11.04164631105481</v>
       </c>
       <c r="L20">
-        <v>6.706477722517026</v>
+        <v>10.22702783105406</v>
       </c>
       <c r="M20">
-        <v>10.93008870472503</v>
+        <v>14.71422124842361</v>
       </c>
       <c r="N20">
-        <v>13.1062873708013</v>
+        <v>20.94235348265959</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.5503521522287</v>
+        <v>13.89138351942501</v>
       </c>
       <c r="C21">
-        <v>7.338990131331014</v>
+        <v>6.813339487353161</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.061361738894869</v>
+        <v>11.45572454236677</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>31.32877802996931</v>
+        <v>40.85892615806949</v>
       </c>
       <c r="H21">
-        <v>10.70852027790018</v>
+        <v>17.2864215846541</v>
       </c>
       <c r="I21">
-        <v>17.17255779534804</v>
+        <v>27.04570977130323</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.52791255873788</v>
+        <v>11.22376697590313</v>
       </c>
       <c r="L21">
-        <v>6.83664593513044</v>
+        <v>10.22658462763851</v>
       </c>
       <c r="M21">
-        <v>11.32812616393744</v>
+        <v>14.76111430551792</v>
       </c>
       <c r="N21">
-        <v>12.81765884693457</v>
+        <v>20.86620929637347</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.16789507259212</v>
+        <v>14.05974362603072</v>
       </c>
       <c r="C22">
-        <v>7.526186924589841</v>
+        <v>6.878329430109837</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.089967487661437</v>
+        <v>11.44581774807313</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>31.69588806620258</v>
+        <v>40.8269609894449</v>
       </c>
       <c r="H22">
-        <v>10.68621272376176</v>
+        <v>17.25394674517634</v>
       </c>
       <c r="I22">
-        <v>17.13050318054344</v>
+        <v>26.98876054044409</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.00895100391612</v>
+        <v>11.34286336785624</v>
       </c>
       <c r="L22">
-        <v>6.923552730040458</v>
+        <v>10.22750282652781</v>
       </c>
       <c r="M22">
-        <v>11.58555667719625</v>
+        <v>14.79356551368058</v>
       </c>
       <c r="N22">
-        <v>12.63064437093321</v>
+        <v>20.81803888941221</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.84063952918052</v>
+        <v>13.96994980806151</v>
       </c>
       <c r="C23">
-        <v>7.426713591671646</v>
+        <v>6.843782330353696</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.074450238687772</v>
+        <v>11.45100167757495</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>31.49679850535266</v>
+        <v>40.84314807899791</v>
       </c>
       <c r="H23">
-        <v>10.69736618848099</v>
+        <v>17.27106852026479</v>
       </c>
       <c r="I23">
-        <v>17.15154317004516</v>
+        <v>27.01878387961039</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.75398135800926</v>
+        <v>11.27930495727637</v>
       </c>
       <c r="L23">
-        <v>6.877004510309588</v>
+        <v>10.22690255959044</v>
       </c>
       <c r="M23">
-        <v>11.44842818212904</v>
+        <v>14.77608263439035</v>
       </c>
       <c r="N23">
-        <v>12.73032150004563</v>
+        <v>20.84360288235885</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.54949745547367</v>
+        <v>13.62879248789472</v>
       </c>
       <c r="C24">
-        <v>7.040373128197961</v>
+        <v>6.709926624370957</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.021116482983819</v>
+        <v>11.47291158631014</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>30.81104054540025</v>
+        <v>40.92360910493658</v>
       </c>
       <c r="H24">
-        <v>10.75565631586406</v>
+        <v>17.34054077126584</v>
       </c>
       <c r="I24">
-        <v>17.26114532248198</v>
+        <v>27.14064838085442</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.74920969159164</v>
+        <v>11.03867352298105</v>
       </c>
       <c r="L24">
-        <v>6.704381936792872</v>
+        <v>10.22705553345001</v>
       </c>
       <c r="M24">
-        <v>10.92354176095452</v>
+        <v>14.71348569551915</v>
       </c>
       <c r="N24">
-        <v>13.11103489288356</v>
+        <v>20.94362502588685</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.08319206327408</v>
+        <v>13.26051504993087</v>
       </c>
       <c r="C25">
-        <v>6.603295981847674</v>
+        <v>6.559400373215885</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.974857573556741</v>
+        <v>11.50142421334424</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>30.20987545380483</v>
+        <v>41.05110087602046</v>
       </c>
       <c r="H25">
-        <v>10.84986356610515</v>
+        <v>17.42535064768152</v>
       </c>
       <c r="I25">
-        <v>17.43742155987108</v>
+        <v>27.28948249227768</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.58043681356966</v>
+        <v>10.7806433512379</v>
       </c>
       <c r="L25">
-        <v>6.526412127300893</v>
+        <v>10.23243541422358</v>
       </c>
       <c r="M25">
-        <v>10.34791720736545</v>
+        <v>14.65390145953185</v>
       </c>
       <c r="N25">
-        <v>13.52983040196548</v>
+        <v>21.0584018329046</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_148/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_148/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.99114768829283</v>
+        <v>13.00737097397503</v>
       </c>
       <c r="C2">
-        <v>6.443580603189078</v>
+        <v>6.264357547098415</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.5266319354333</v>
+        <v>6.950121050077626</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>41.17971849164739</v>
+        <v>29.87797111896244</v>
       </c>
       <c r="H2">
-        <v>17.49628690231036</v>
+        <v>10.94341067035482</v>
       </c>
       <c r="I2">
-        <v>27.41399710471474</v>
+        <v>17.61164426209973</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.5933071817574</v>
+        <v>10.64543400221495</v>
       </c>
       <c r="L2">
-        <v>10.24090758299286</v>
+        <v>6.40281299701086</v>
       </c>
       <c r="M2">
-        <v>14.61703621086329</v>
+        <v>9.918711562696322</v>
       </c>
       <c r="N2">
-        <v>21.14889742969934</v>
+        <v>13.84645025192432</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.81077756571739</v>
+        <v>12.23459660298773</v>
       </c>
       <c r="C3">
-        <v>6.362136940330569</v>
+        <v>6.024347764075902</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.54635266528762</v>
+        <v>6.93897879626538</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>41.28840621595985</v>
+        <v>29.717327296954</v>
       </c>
       <c r="H3">
-        <v>17.54965785045948</v>
+        <v>11.02060974405349</v>
       </c>
       <c r="I3">
-        <v>27.50768331018679</v>
+        <v>17.7548789770523</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.46868518184184</v>
+        <v>9.964793529685895</v>
       </c>
       <c r="L3">
-        <v>10.24947439209668</v>
+        <v>6.32386287262912</v>
       </c>
       <c r="M3">
-        <v>14.59650511187795</v>
+        <v>9.626141165429077</v>
       </c>
       <c r="N3">
-        <v>21.21399276139048</v>
+        <v>14.06676433910939</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.70146751636801</v>
+        <v>11.73934066450781</v>
       </c>
       <c r="C4">
-        <v>6.310731392090664</v>
+        <v>5.872079440658945</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.55976487623375</v>
+        <v>6.934843405592502</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>41.36570089473734</v>
+        <v>29.64866261511704</v>
       </c>
       <c r="H4">
-        <v>17.58504048248533</v>
+        <v>11.07442062163333</v>
       </c>
       <c r="I4">
-        <v>27.5697913099075</v>
+        <v>17.85444785981198</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.39354870916268</v>
+        <v>9.523577334118654</v>
       </c>
       <c r="L4">
-        <v>10.25613126960129</v>
+        <v>6.277814011002795</v>
       </c>
       <c r="M4">
-        <v>14.58612044560316</v>
+        <v>9.446295948368752</v>
       </c>
       <c r="N4">
-        <v>21.25582921700659</v>
+        <v>14.20504766500234</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.65733921835183</v>
+        <v>11.53245164858158</v>
       </c>
       <c r="C5">
-        <v>6.289440569519396</v>
+        <v>5.80883112054395</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.56555867852502</v>
+        <v>6.933828544543495</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>41.39984580248006</v>
+        <v>29.62794556605904</v>
       </c>
       <c r="H5">
-        <v>17.60011612855523</v>
+        <v>11.0979047609855</v>
       </c>
       <c r="I5">
-        <v>27.59625296457683</v>
+        <v>17.89783404459897</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.36331195090448</v>
+        <v>9.337908351499035</v>
       </c>
       <c r="L5">
-        <v>10.25919574146181</v>
+        <v>6.259666213639013</v>
       </c>
       <c r="M5">
-        <v>14.58245091455587</v>
+        <v>9.37305816658583</v>
       </c>
       <c r="N5">
-        <v>21.27334893769841</v>
+        <v>14.26218079878747</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.65003849217224</v>
+        <v>11.4977970481992</v>
       </c>
       <c r="C6">
-        <v>6.285884820465183</v>
+        <v>5.798257583349539</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.5665405704292</v>
+        <v>6.933700213094227</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>41.40567512677261</v>
+        <v>29.6249360657577</v>
       </c>
       <c r="H6">
-        <v>17.60265910444907</v>
+        <v>11.10189666054516</v>
       </c>
       <c r="I6">
-        <v>27.60071647078741</v>
+        <v>17.9052049203973</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.35831522376082</v>
+        <v>9.306723466229043</v>
       </c>
       <c r="L6">
-        <v>10.25972585218963</v>
+        <v>6.256690267289122</v>
       </c>
       <c r="M6">
-        <v>14.58187565475591</v>
+        <v>9.360903242158974</v>
       </c>
       <c r="N6">
-        <v>21.27628656355494</v>
+        <v>14.27171561993188</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.70087062850476</v>
+        <v>11.73657077578588</v>
       </c>
       <c r="C7">
-        <v>6.310445631758061</v>
+        <v>5.871231250799285</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.55984168399003</v>
+        <v>6.934827018195054</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>41.36615068048555</v>
+        <v>29.64835417340127</v>
       </c>
       <c r="H7">
-        <v>17.58524113806697</v>
+        <v>11.07473110983851</v>
       </c>
       <c r="I7">
-        <v>27.57014351688683</v>
+        <v>17.85502174221536</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.39313933408087</v>
+        <v>9.521097112977964</v>
       </c>
       <c r="L7">
-        <v>10.25617117334628</v>
+        <v>6.27756675462144</v>
       </c>
       <c r="M7">
-        <v>14.58606867565207</v>
+        <v>9.44530789384819</v>
       </c>
       <c r="N7">
-        <v>21.25606358509007</v>
+        <v>14.20581498593979</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.92869066870381</v>
+        <v>12.74531033829539</v>
       </c>
       <c r="C8">
-        <v>6.41579452461543</v>
+        <v>6.182638320543854</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.53316133369646</v>
+        <v>6.945711587299676</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>41.21499724311777</v>
+        <v>29.81620100134916</v>
       </c>
       <c r="H8">
-        <v>17.51414692782566</v>
+        <v>10.96866378551673</v>
       </c>
       <c r="I8">
-        <v>27.44534826974522</v>
+        <v>17.65855057000846</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.55007156145073</v>
+        <v>10.41557639608524</v>
       </c>
       <c r="L8">
-        <v>10.24357182488981</v>
+        <v>6.375091999166941</v>
       </c>
       <c r="M8">
-        <v>14.60949832098763</v>
+        <v>9.817935608726479</v>
       </c>
       <c r="N8">
-        <v>21.17095550667028</v>
+        <v>13.92180519622902</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.38443067904657</v>
+        <v>14.5665348988105</v>
       </c>
       <c r="C9">
-        <v>6.61090067609443</v>
+        <v>6.753221673897751</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.49116624568728</v>
+        <v>6.988966475209976</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>41.00273895826813</v>
+        <v>30.39458140818282</v>
       </c>
       <c r="H9">
-        <v>17.39546328890172</v>
+        <v>10.81419483493589</v>
       </c>
       <c r="I9">
-        <v>27.23702697254018</v>
+        <v>17.37078584765237</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.86724008947148</v>
+        <v>11.98562011032186</v>
       </c>
       <c r="L9">
-        <v>10.22992408943339</v>
+        <v>6.585230074564816</v>
       </c>
       <c r="M9">
-        <v>14.67289575655889</v>
+        <v>10.54285391762687</v>
       </c>
       <c r="N9">
-        <v>21.01881341249116</v>
+        <v>13.38755611307968</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.72150613525355</v>
+        <v>15.90869520281965</v>
       </c>
       <c r="C10">
-        <v>6.746754702935307</v>
+        <v>7.146844565026162</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.46658158607352</v>
+        <v>7.034688789196182</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>40.89855623131024</v>
+        <v>30.98590661981561</v>
       </c>
       <c r="H10">
-        <v>17.32090737934566</v>
+        <v>10.73723328679778</v>
       </c>
       <c r="I10">
-        <v>27.10620237731714</v>
+        <v>17.22655802450658</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.10392790315084</v>
+        <v>13.02854405655267</v>
       </c>
       <c r="L10">
-        <v>10.22660496804245</v>
+        <v>6.750604897915475</v>
       </c>
       <c r="M10">
-        <v>14.72986041970407</v>
+        <v>11.06686543910211</v>
       </c>
       <c r="N10">
-        <v>20.91593758114567</v>
+        <v>13.00712261009514</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.87466501518176</v>
+        <v>16.48807745271087</v>
       </c>
       <c r="C11">
-        <v>6.80683402392047</v>
+        <v>7.32023477903776</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.45675302296595</v>
+        <v>7.058636748064903</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>40.86248523978638</v>
+        <v>31.29378206379424</v>
       </c>
       <c r="H11">
-        <v>17.28973545058166</v>
+        <v>10.71106460325981</v>
       </c>
       <c r="I11">
-        <v>27.05152202629767</v>
+        <v>17.17734815208953</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.21195784752339</v>
+        <v>13.47942676972198</v>
       </c>
       <c r="L11">
-        <v>10.22654284714556</v>
+        <v>6.828103191194184</v>
       </c>
       <c r="M11">
-        <v>14.75796992026403</v>
+        <v>11.30248557678202</v>
       </c>
       <c r="N11">
-        <v>20.87105028190102</v>
+        <v>12.83626314966038</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.9325821112037</v>
+        <v>16.70305062055971</v>
       </c>
       <c r="C12">
-        <v>6.829329114633185</v>
+        <v>7.385074154903723</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.45322557335095</v>
+        <v>7.068167356117919</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>40.85045986612125</v>
+        <v>31.41615659823561</v>
       </c>
       <c r="H12">
-        <v>17.27832613285059</v>
+        <v>10.70250712560076</v>
       </c>
       <c r="I12">
-        <v>27.0315116815575</v>
+        <v>17.16123182573615</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.2528812942433</v>
+        <v>13.64681878331944</v>
       </c>
       <c r="L12">
-        <v>10.22672662680449</v>
+        <v>6.857765608295146</v>
       </c>
       <c r="M12">
-        <v>14.76892435685579</v>
+        <v>11.39124894068909</v>
       </c>
       <c r="N12">
-        <v>20.85432604346981</v>
+        <v>12.7718435808125</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.92011308496632</v>
+        <v>16.65694823565581</v>
       </c>
       <c r="C13">
-        <v>6.824495889715195</v>
+        <v>7.371146306143114</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.45397663351029</v>
+        <v>7.066094074247628</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>40.85297699248282</v>
+        <v>31.38954061403102</v>
       </c>
       <c r="H13">
-        <v>17.28076577019801</v>
+        <v>10.70428867133615</v>
       </c>
       <c r="I13">
-        <v>27.0357902999083</v>
+        <v>17.16458812709562</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.24406761631709</v>
+        <v>13.61091614000701</v>
       </c>
       <c r="L13">
-        <v>10.22667784159154</v>
+        <v>6.851363410240009</v>
       </c>
       <c r="M13">
-        <v>14.76655143224431</v>
+        <v>11.37215359387864</v>
       </c>
       <c r="N13">
-        <v>20.85791575852768</v>
+        <v>12.78570556926524</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.87943182003246</v>
+        <v>16.5058518014715</v>
       </c>
       <c r="C14">
-        <v>6.808689877307185</v>
+        <v>7.325585588315535</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.45645892386731</v>
+        <v>7.05941152457715</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>40.8614631283968</v>
+        <v>31.30373279797315</v>
       </c>
       <c r="H14">
-        <v>17.28878888507588</v>
+        <v>10.71033300103753</v>
       </c>
       <c r="I14">
-        <v>27.04986181010689</v>
+        <v>17.17597083537241</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.21532455499365</v>
+        <v>13.493265064227</v>
       </c>
       <c r="L14">
-        <v>10.2265538174769</v>
+        <v>6.83053727295711</v>
       </c>
       <c r="M14">
-        <v>14.75886497026051</v>
+        <v>11.30979776726252</v>
       </c>
       <c r="N14">
-        <v>20.86966889237972</v>
+        <v>12.83095788817632</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.85450123215733</v>
+        <v>16.41272615758275</v>
       </c>
       <c r="C15">
-        <v>6.798974710982732</v>
+        <v>7.297571540867051</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.4580047031168</v>
+        <v>7.055378712651208</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>40.86687407551665</v>
+        <v>31.25193250287193</v>
       </c>
       <c r="H15">
-        <v>17.2937546983699</v>
+        <v>10.71421386614372</v>
       </c>
       <c r="I15">
-        <v>27.05857167578688</v>
+        <v>17.18327592507128</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.19771945255054</v>
+        <v>13.42076565836837</v>
       </c>
       <c r="L15">
-        <v>10.22650481860262</v>
+        <v>6.817821438419365</v>
       </c>
       <c r="M15">
-        <v>14.75419698121292</v>
+        <v>11.27154123765334</v>
       </c>
       <c r="N15">
-        <v>20.87690362098712</v>
+        <v>12.85871177141581</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.71148849701764</v>
+        <v>15.87020867708226</v>
       </c>
       <c r="C16">
-        <v>6.742793038290943</v>
+        <v>7.135398510923439</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.46725113618075</v>
+        <v>7.033187888634405</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>40.90114190270447</v>
+        <v>30.96658588422304</v>
       </c>
       <c r="H16">
-        <v>17.32299977369257</v>
+        <v>10.73912818477023</v>
       </c>
       <c r="I16">
-        <v>27.1098731946952</v>
+        <v>17.23011752233909</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.09687196127123</v>
+        <v>12.99860717917744</v>
       </c>
       <c r="L16">
-        <v>10.2266380868029</v>
+        <v>6.745584926030693</v>
       </c>
       <c r="M16">
-        <v>14.72806709788919</v>
+        <v>11.05140593435875</v>
       </c>
       <c r="N16">
-        <v>20.91890942716848</v>
+        <v>13.01833000630281</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.62366934382989</v>
+        <v>15.52944675681497</v>
       </c>
       <c r="C17">
-        <v>6.707880637392351</v>
+        <v>7.034453478045408</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.47327028761736</v>
+        <v>7.020387631787544</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>40.92506839147008</v>
+        <v>30.80163896665442</v>
       </c>
       <c r="H17">
-        <v>17.34164363773855</v>
+        <v>10.75673290970865</v>
       </c>
       <c r="I17">
-        <v>27.14258343842961</v>
+        <v>17.26316520118601</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.03507094455544</v>
+        <v>12.73362162159908</v>
       </c>
       <c r="L17">
-        <v>10.22709004621484</v>
+        <v>6.701843452806633</v>
       </c>
       <c r="M17">
-        <v>14.71259567881334</v>
+        <v>10.91560552325092</v>
       </c>
       <c r="N17">
-        <v>20.94516729658696</v>
+        <v>13.11679004060725</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.57314450280922</v>
+        <v>15.33051179563833</v>
       </c>
       <c r="C18">
-        <v>6.687638389197205</v>
+        <v>6.975858721023519</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.47685992295535</v>
+        <v>7.013321088145165</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>40.93989568276296</v>
+        <v>30.71041455530911</v>
       </c>
       <c r="H18">
-        <v>17.35262535219981</v>
+        <v>10.76768581061621</v>
       </c>
       <c r="I18">
-        <v>27.16185229369691</v>
+        <v>17.28370694425807</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.99956063783473</v>
+        <v>12.57898986014416</v>
       </c>
       <c r="L18">
-        <v>10.22748632953773</v>
+        <v>6.676898662458767</v>
       </c>
       <c r="M18">
-        <v>14.70390399217931</v>
+        <v>10.83724067809477</v>
       </c>
       <c r="N18">
-        <v>20.96045011586958</v>
+        <v>13.17363112712834</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.55603703407694</v>
+        <v>15.26264961020083</v>
       </c>
       <c r="C19">
-        <v>6.680757216844501</v>
+        <v>6.955928070542186</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.47809723698708</v>
+        <v>7.01097900091244</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>40.94509874358066</v>
+        <v>30.68014789480722</v>
       </c>
       <c r="H19">
-        <v>17.35638792057621</v>
+        <v>10.77153394498467</v>
       </c>
       <c r="I19">
-        <v>27.16845447624332</v>
+        <v>17.29092067173852</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.98754477502314</v>
+        <v>12.52625195574094</v>
       </c>
       <c r="L19">
-        <v>10.22764394438663</v>
+        <v>6.668489896900594</v>
       </c>
       <c r="M19">
-        <v>14.70099687155673</v>
+        <v>10.81066582869949</v>
       </c>
       <c r="N19">
-        <v>20.96565556728342</v>
+        <v>13.19291356244229</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.63301965373471</v>
+        <v>15.56602508842039</v>
       </c>
       <c r="C20">
-        <v>6.711613902668604</v>
+        <v>7.04525454742556</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.4726163379748</v>
+        <v>7.021719556497567</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>40.92241106553602</v>
+        <v>30.81881873434867</v>
       </c>
       <c r="H20">
-        <v>17.33963223619497</v>
+        <v>10.75477268100219</v>
       </c>
       <c r="I20">
-        <v>27.1390543008542</v>
+        <v>17.25948736372458</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.04164631105481</v>
+        <v>12.76205918390113</v>
       </c>
       <c r="L20">
-        <v>10.22702783105406</v>
+        <v>6.706477722516992</v>
       </c>
       <c r="M20">
-        <v>14.71422124842361</v>
+        <v>10.93008870472501</v>
       </c>
       <c r="N20">
-        <v>20.94235348265959</v>
+        <v>13.10628737080133</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.89138351942501</v>
+        <v>16.55035215222876</v>
       </c>
       <c r="C21">
-        <v>6.813339487353161</v>
+        <v>7.338990131331102</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.45572454236677</v>
+        <v>7.06136173889498</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>40.85892615806949</v>
+        <v>31.32877802996944</v>
       </c>
       <c r="H21">
-        <v>17.2864215846541</v>
+        <v>10.70852027790025</v>
       </c>
       <c r="I21">
-        <v>27.04570977130323</v>
+        <v>17.17255779534819</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.22376697590313</v>
+        <v>13.52791255873796</v>
       </c>
       <c r="L21">
-        <v>10.22658462763851</v>
+        <v>6.836645935130443</v>
       </c>
       <c r="M21">
-        <v>14.76111430551792</v>
+        <v>11.32812616393743</v>
       </c>
       <c r="N21">
-        <v>20.86620929637347</v>
+        <v>12.81765884693478</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.05974362603072</v>
+        <v>17.16789507259205</v>
       </c>
       <c r="C22">
-        <v>6.878329430109837</v>
+        <v>7.526186924590037</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.44581774807313</v>
+        <v>7.089967487661486</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>40.8269609894449</v>
+        <v>31.69588806620279</v>
       </c>
       <c r="H22">
-        <v>17.25394674517634</v>
+        <v>10.68621272376186</v>
       </c>
       <c r="I22">
-        <v>26.98876054044409</v>
+        <v>17.13050318054369</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.34286336785624</v>
+        <v>14.00895100391607</v>
       </c>
       <c r="L22">
-        <v>10.22750282652781</v>
+        <v>6.923552730040448</v>
       </c>
       <c r="M22">
-        <v>14.79356551368058</v>
+        <v>11.58555667719628</v>
       </c>
       <c r="N22">
-        <v>20.81803888941221</v>
+        <v>12.63064437093332</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.96994980806151</v>
+        <v>16.84063952918052</v>
       </c>
       <c r="C23">
-        <v>6.843782330353696</v>
+        <v>7.426713591671559</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.45100167757495</v>
+        <v>7.074450238687769</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>40.84314807899791</v>
+        <v>31.49679850535247</v>
       </c>
       <c r="H23">
-        <v>17.27106852026479</v>
+        <v>10.69736618848097</v>
       </c>
       <c r="I23">
-        <v>27.01878387961039</v>
+        <v>17.15154317004504</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.27930495727637</v>
+        <v>13.75398135800926</v>
       </c>
       <c r="L23">
-        <v>10.22690255959044</v>
+        <v>6.877004510309607</v>
       </c>
       <c r="M23">
-        <v>14.77608263439035</v>
+        <v>11.44842818212904</v>
       </c>
       <c r="N23">
-        <v>20.84360288235885</v>
+        <v>12.7303215000456</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.62879248789472</v>
+        <v>15.54949745547365</v>
       </c>
       <c r="C24">
-        <v>6.709926624370957</v>
+        <v>7.040373128197949</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.47291158631014</v>
+        <v>7.021116482983761</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>40.92360910493658</v>
+        <v>30.81104054540039</v>
       </c>
       <c r="H24">
-        <v>17.34054077126584</v>
+        <v>10.75565631586407</v>
       </c>
       <c r="I24">
-        <v>27.14064838085442</v>
+        <v>17.26114532248206</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.03867352298105</v>
+        <v>12.74920969159162</v>
       </c>
       <c r="L24">
-        <v>10.22705553345001</v>
+        <v>6.704381936792848</v>
       </c>
       <c r="M24">
-        <v>14.71348569551915</v>
+        <v>10.92354176095452</v>
       </c>
       <c r="N24">
-        <v>20.94362502588685</v>
+        <v>13.11103489288356</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.26051504993087</v>
+        <v>14.08319206327411</v>
       </c>
       <c r="C25">
-        <v>6.559400373215885</v>
+        <v>6.603295981847745</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.50142421334424</v>
+        <v>6.974857573556868</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>41.05110087602046</v>
+        <v>30.20987545380477</v>
       </c>
       <c r="H25">
-        <v>17.42535064768152</v>
+        <v>10.84986356610512</v>
       </c>
       <c r="I25">
-        <v>27.28948249227768</v>
+        <v>17.43742155987103</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.7806433512379</v>
+        <v>11.5804368135697</v>
       </c>
       <c r="L25">
-        <v>10.23243541422358</v>
+        <v>6.526412127300943</v>
       </c>
       <c r="M25">
-        <v>14.65390145953185</v>
+        <v>10.34791720736548</v>
       </c>
       <c r="N25">
-        <v>21.0584018329046</v>
+        <v>13.52983040196546</v>
       </c>
       <c r="O25">
         <v>0</v>
